--- a/Subject Allocations Semester 2.xlsx
+++ b/Subject Allocations Semester 2.xlsx
@@ -45,12 +45,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6827" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6827" uniqueCount="553">
   <si>
     <t>2023 Teaching Staff Semester 2</t>
   </si>
   <si>
-    <t>30/05/2023 14:29:06</t>
+    <t>31/05/2023 10:49:15</t>
   </si>
   <si>
     <t>M - 6 4 3 PD 5</t>
@@ -509,12 +509,12 @@
     <t>CTS</t>
   </si>
   <si>
+    <t>AB11</t>
+  </si>
+  <si>
     <t>Psychology B</t>
   </si>
   <si>
-    <t>AB11</t>
-  </si>
-  <si>
     <t>9O3</t>
   </si>
   <si>
@@ -626,15 +626,15 @@
     <t>DTN</t>
   </si>
   <si>
+    <t>AC3</t>
+  </si>
+  <si>
     <t>11 / 12</t>
   </si>
   <si>
     <t>Physics 2 / Physics</t>
   </si>
   <si>
-    <t>AC3</t>
-  </si>
-  <si>
     <t>AC2</t>
   </si>
   <si>
@@ -1274,7 +1274,7 @@
     <t>07 / 08</t>
   </si>
   <si>
-    <t>Dance / Drama T4</t>
+    <t>Dance T4</t>
   </si>
   <si>
     <t>B1 Arts &amp; Musical</t>
@@ -1466,6 +1466,9 @@
     <t>RAND</t>
   </si>
   <si>
+    <t>Dance T3</t>
+  </si>
+  <si>
     <t>Roe</t>
   </si>
   <si>
@@ -1697,10 +1700,10 @@
     <t>B1 RP Coord</t>
   </si>
   <si>
-    <t>30/05/2023 14:29:07</t>
-  </si>
-  <si>
-    <t>30/05/2023 14:29:08</t>
+    <t>31/05/2023 10:49:16</t>
+  </si>
+  <si>
+    <t>31/05/2023 10:49:17</t>
   </si>
 </sst>
 </file>
@@ -2427,7 +2430,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -2541,7 +2544,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -2655,7 +2658,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="15">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="16"/>
@@ -2769,7 +2772,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="15">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -2883,7 +2886,7 @@
         <v>68</v>
       </c>
       <c r="C22" s="15">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -3339,7 +3342,7 @@
         <v>106</v>
       </c>
       <c r="C38" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -3423,8 +3426,8 @@
       <c r="C41" s="15">
         <v>1035</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>120</v>
+      <c r="D41" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>20</v>
@@ -3441,8 +3444,8 @@
       <c r="I41" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="16" t="s">
-        <v>20</v>
+      <c r="J41" s="19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1">
@@ -3453,15 +3456,15 @@
         <v>117</v>
       </c>
       <c r="C42" s="15">
-        <v>335</v>
-      </c>
-      <c r="D42" s="19"/>
+        <v>275</v>
+      </c>
+      <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="J42" s="19"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="17" t="s">
@@ -3567,7 +3570,7 @@
         <v>82</v>
       </c>
       <c r="C46" s="15">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="21"/>
@@ -3795,7 +3798,7 @@
         <v>138</v>
       </c>
       <c r="C54" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="20"/>
@@ -3988,13 +3991,13 @@
         <v>152</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C61" s="15">
         <v>1260</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>70</v>
@@ -4020,7 +4023,7 @@
         <v>153</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="C62" s="15">
         <v>0</v>
@@ -4044,25 +4047,25 @@
         <v>20</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4107,17 +4110,17 @@
       <c r="C65" s="15">
         <v>780</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="22" t="s">
         <v>165</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="H65" s="16" t="s">
         <v>20</v>
@@ -4137,12 +4140,12 @@
         <v>149</v>
       </c>
       <c r="C66" s="15">
-        <v>290</v>
-      </c>
-      <c r="D66" s="22"/>
+        <v>230</v>
+      </c>
+      <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
+      <c r="G66" s="22"/>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
@@ -4251,7 +4254,7 @@
         <v>169</v>
       </c>
       <c r="C70" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
@@ -4479,7 +4482,7 @@
         <v>183</v>
       </c>
       <c r="C78" s="15">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
@@ -4538,7 +4541,7 @@
         <v>20</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>132</v>
@@ -4558,7 +4561,7 @@
         <v>191</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C81" s="15">
         <v>1035</v>
@@ -4570,7 +4573,7 @@
         <v>20</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>47</v>
@@ -4590,10 +4593,10 @@
         <v>192</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="C82" s="15">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="16"/>
@@ -4620,7 +4623,7 @@
         <v>20</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G83" s="18" t="s">
         <v>31</v>
@@ -4683,8 +4686,8 @@
       <c r="E85" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F85" s="19" t="s">
-        <v>207</v>
+      <c r="F85" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>20</v>
@@ -4695,8 +4698,8 @@
       <c r="I85" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="J85" s="16" t="s">
-        <v>20</v>
+      <c r="J85" s="19" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="18" customHeight="1">
@@ -4707,15 +4710,15 @@
         <v>203</v>
       </c>
       <c r="C86" s="15">
-        <v>545</v>
+        <v>485</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="19"/>
+      <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
       <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
+      <c r="J86" s="19"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="17" t="s">
@@ -4821,7 +4824,7 @@
         <v>148</v>
       </c>
       <c r="C90" s="15">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
@@ -4905,14 +4908,14 @@
       <c r="C93" s="15">
         <v>1035</v>
       </c>
-      <c r="D93" s="16" t="s">
-        <v>20</v>
+      <c r="D93" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="19" t="s">
-        <v>221</v>
+      <c r="F93" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>32</v>
@@ -4935,11 +4938,11 @@
         <v>216</v>
       </c>
       <c r="C94" s="15">
-        <v>335</v>
-      </c>
-      <c r="D94" s="16"/>
+        <v>275</v>
+      </c>
+      <c r="D94" s="19"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="19"/>
+      <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
       <c r="I94" s="16"/>
@@ -5049,7 +5052,7 @@
         <v>220</v>
       </c>
       <c r="C98" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -5391,7 +5394,7 @@
         <v>63</v>
       </c>
       <c r="C110" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
@@ -5619,7 +5622,7 @@
         <v>252</v>
       </c>
       <c r="C118" s="15">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="D118" s="16"/>
       <c r="E118" s="23"/>
@@ -5733,7 +5736,7 @@
         <v>262</v>
       </c>
       <c r="C122" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
@@ -5847,7 +5850,7 @@
         <v>113</v>
       </c>
       <c r="C126" s="15">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="D126" s="16"/>
       <c r="E126" s="16"/>
@@ -5961,7 +5964,7 @@
         <v>187</v>
       </c>
       <c r="C130" s="15">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="D130" s="16"/>
       <c r="E130" s="19"/>
@@ -6075,7 +6078,7 @@
         <v>98</v>
       </c>
       <c r="C134" s="15">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
@@ -6189,7 +6192,7 @@
         <v>293</v>
       </c>
       <c r="C138" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
@@ -6303,7 +6306,7 @@
         <v>61</v>
       </c>
       <c r="C142" s="15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D142" s="16"/>
       <c r="E142" s="16"/>
@@ -6417,7 +6420,7 @@
         <v>41</v>
       </c>
       <c r="C146" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D146" s="16"/>
       <c r="E146" s="16"/>
@@ -6485,7 +6488,7 @@
         <v>20</v>
       </c>
       <c r="I148" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J148" s="15" t="s">
         <v>20</v>
@@ -6531,7 +6534,7 @@
         <v>314</v>
       </c>
       <c r="C150" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D150" s="16"/>
       <c r="E150" s="16"/>
@@ -6713,7 +6716,7 @@
         <v>331</v>
       </c>
       <c r="I156" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J156" s="15" t="s">
         <v>184</v>
@@ -7074,8 +7077,8 @@
       <c r="D169" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E169" s="16" t="s">
-        <v>20</v>
+      <c r="E169" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="F169" s="16" t="s">
         <v>344</v>
@@ -7086,8 +7089,8 @@
       <c r="H169" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I169" s="22" t="s">
-        <v>345</v>
+      <c r="I169" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="J169" s="16" t="s">
         <v>341</v>
@@ -7101,14 +7104,14 @@
         <v>217</v>
       </c>
       <c r="C170" s="15">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="D170" s="16"/>
-      <c r="E170" s="16"/>
+      <c r="E170" s="22"/>
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
       <c r="H170" s="16"/>
-      <c r="I170" s="22"/>
+      <c r="I170" s="16"/>
       <c r="J170" s="16"/>
     </row>
     <row r="171" spans="1:10">
@@ -7311,11 +7314,11 @@
       <c r="G177" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H177" s="21" t="s">
+      <c r="H177" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I177" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="I177" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="J177" s="16" t="s">
         <v>47</v>
@@ -7335,8 +7338,8 @@
       <c r="E178" s="16"/>
       <c r="F178" s="16"/>
       <c r="G178" s="16"/>
-      <c r="H178" s="21"/>
-      <c r="I178" s="16"/>
+      <c r="H178" s="16"/>
+      <c r="I178" s="21"/>
       <c r="J178" s="16"/>
     </row>
     <row r="179" spans="1:10">
@@ -7416,14 +7419,14 @@
       <c r="D181" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E181" s="16" t="s">
-        <v>20</v>
+      <c r="E181" s="22" t="s">
+        <v>362</v>
       </c>
       <c r="F181" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G181" s="22" t="s">
-        <v>362</v>
+      <c r="G181" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="H181" s="16" t="s">
         <v>20</v>
@@ -7443,12 +7446,12 @@
         <v>74</v>
       </c>
       <c r="C182" s="15">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="D182" s="16"/>
-      <c r="E182" s="16"/>
+      <c r="E182" s="22"/>
       <c r="F182" s="16"/>
-      <c r="G182" s="22"/>
+      <c r="G182" s="16"/>
       <c r="H182" s="16"/>
       <c r="I182" s="16"/>
       <c r="J182" s="16"/>
@@ -7671,7 +7674,7 @@
         <v>349</v>
       </c>
       <c r="C190" s="15">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
@@ -7785,7 +7788,7 @@
         <v>85</v>
       </c>
       <c r="C194" s="15">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="D194" s="16"/>
       <c r="E194" s="20"/>
@@ -8127,7 +8130,7 @@
         <v>39</v>
       </c>
       <c r="C206" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D206" s="16"/>
       <c r="E206" s="16"/>
@@ -8241,7 +8244,7 @@
         <v>288</v>
       </c>
       <c r="C210" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="16"/>
@@ -8337,11 +8340,11 @@
       <c r="G213" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="H213" s="22" t="s">
+      <c r="H213" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I213" s="22" t="s">
         <v>401</v>
-      </c>
-      <c r="I213" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="J213" s="16" t="s">
         <v>20</v>
@@ -8361,8 +8364,8 @@
       <c r="E214" s="16"/>
       <c r="F214" s="16"/>
       <c r="G214" s="24"/>
-      <c r="H214" s="22"/>
-      <c r="I214" s="16"/>
+      <c r="H214" s="16"/>
+      <c r="I214" s="22"/>
       <c r="J214" s="16"/>
     </row>
     <row r="215" spans="1:10">
@@ -8449,16 +8452,16 @@
         <v>407</v>
       </c>
       <c r="G217" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="H217" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="H217" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="I217" s="19" t="s">
+      <c r="I217" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J217" s="19" t="s">
         <v>410</v>
-      </c>
-      <c r="J217" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="18" customHeight="1">
@@ -8476,8 +8479,8 @@
       <c r="F218" s="16"/>
       <c r="G218" s="16"/>
       <c r="H218" s="16"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="16"/>
+      <c r="I218" s="16"/>
+      <c r="J218" s="19"/>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" s="17" t="s">
@@ -8562,14 +8565,14 @@
       <c r="F221" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G221" s="16" t="s">
-        <v>20</v>
+      <c r="G221" s="22" t="s">
+        <v>416</v>
       </c>
       <c r="H221" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I221" s="22" t="s">
-        <v>416</v>
+      <c r="I221" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="J221" s="16" t="s">
         <v>20</v>
@@ -8583,14 +8586,14 @@
         <v>414</v>
       </c>
       <c r="C222" s="15">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="D222" s="16"/>
       <c r="E222" s="16"/>
       <c r="F222" s="16"/>
-      <c r="G222" s="16"/>
+      <c r="G222" s="22"/>
       <c r="H222" s="16"/>
-      <c r="I222" s="22"/>
+      <c r="I222" s="16"/>
       <c r="J222" s="16"/>
     </row>
     <row r="223" spans="1:10">
@@ -8676,14 +8679,14 @@
       <c r="F225" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="G225" s="16" t="s">
-        <v>20</v>
+      <c r="G225" s="25" t="s">
+        <v>421</v>
       </c>
       <c r="H225" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I225" s="25" t="s">
-        <v>421</v>
+      <c r="I225" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="J225" s="16" t="s">
         <v>20</v>
@@ -8697,14 +8700,14 @@
         <v>357</v>
       </c>
       <c r="C226" s="15">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="D226" s="16"/>
       <c r="E226" s="16"/>
       <c r="F226" s="16"/>
-      <c r="G226" s="16"/>
+      <c r="G226" s="25"/>
       <c r="H226" s="16"/>
-      <c r="I226" s="25"/>
+      <c r="I226" s="16"/>
       <c r="J226" s="16"/>
     </row>
     <row r="227" spans="1:10">
@@ -9039,7 +9042,7 @@
         <v>150</v>
       </c>
       <c r="C238" s="15">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="D238" s="16"/>
       <c r="E238" s="16"/>
@@ -9123,8 +9126,8 @@
       <c r="C241" s="15">
         <v>756</v>
       </c>
-      <c r="D241" s="16" t="s">
-        <v>20</v>
+      <c r="D241" s="19" t="s">
+        <v>438</v>
       </c>
       <c r="E241" s="16" t="s">
         <v>20</v>
@@ -9138,8 +9141,8 @@
       <c r="H241" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="I241" s="19" t="s">
-        <v>438</v>
+      <c r="I241" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="J241" s="16" t="s">
         <v>20</v>
@@ -9155,12 +9158,12 @@
       <c r="C242" s="15">
         <v>126</v>
       </c>
-      <c r="D242" s="16"/>
+      <c r="D242" s="19"/>
       <c r="E242" s="16"/>
       <c r="F242" s="16"/>
       <c r="G242" s="16"/>
       <c r="H242" s="16"/>
-      <c r="I242" s="19"/>
+      <c r="I242" s="16"/>
       <c r="J242" s="16"/>
     </row>
     <row r="243" spans="1:10">
@@ -9267,7 +9270,7 @@
         <v>442</v>
       </c>
       <c r="C246" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D246" s="16"/>
       <c r="E246" s="16"/>
@@ -9381,7 +9384,7 @@
         <v>124</v>
       </c>
       <c r="C250" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D250" s="16"/>
       <c r="E250" s="16"/>
@@ -9465,8 +9468,8 @@
       <c r="C253" s="15">
         <v>1035</v>
       </c>
-      <c r="D253" s="19" t="s">
-        <v>455</v>
+      <c r="D253" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="E253" s="16" t="s">
         <v>20</v>
@@ -9480,8 +9483,8 @@
       <c r="H253" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="I253" s="16" t="s">
-        <v>20</v>
+      <c r="I253" s="19" t="s">
+        <v>455</v>
       </c>
       <c r="J253" s="16" t="s">
         <v>51</v>
@@ -9497,12 +9500,12 @@
       <c r="C254" s="15">
         <v>305</v>
       </c>
-      <c r="D254" s="19"/>
+      <c r="D254" s="16"/>
       <c r="E254" s="16"/>
       <c r="F254" s="16"/>
       <c r="G254" s="24"/>
       <c r="H254" s="16"/>
-      <c r="I254" s="16"/>
+      <c r="I254" s="19"/>
       <c r="J254" s="16"/>
     </row>
     <row r="255" spans="1:10">
@@ -9609,7 +9612,7 @@
         <v>100</v>
       </c>
       <c r="C258" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D258" s="16"/>
       <c r="E258" s="16"/>
@@ -9810,8 +9813,8 @@
       <c r="D265" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E265" s="16" t="s">
-        <v>20</v>
+      <c r="E265" s="22" t="s">
+        <v>469</v>
       </c>
       <c r="F265" s="16" t="s">
         <v>20</v>
@@ -9822,8 +9825,8 @@
       <c r="H265" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I265" s="22" t="s">
-        <v>469</v>
+      <c r="I265" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="J265" s="16" t="s">
         <v>468</v>
@@ -9837,14 +9840,14 @@
         <v>241</v>
       </c>
       <c r="C266" s="15">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="D266" s="16"/>
-      <c r="E266" s="16"/>
+      <c r="E266" s="22"/>
       <c r="F266" s="16"/>
       <c r="G266" s="16"/>
       <c r="H266" s="16"/>
-      <c r="I266" s="22"/>
+      <c r="I266" s="16"/>
       <c r="J266" s="16"/>
     </row>
     <row r="267" spans="1:10">
@@ -9934,7 +9937,7 @@
         <v>20</v>
       </c>
       <c r="H269" s="16" t="s">
-        <v>273</v>
+        <v>473</v>
       </c>
       <c r="I269" s="16" t="s">
         <v>20</v>
@@ -10027,7 +10030,7 @@
     </row>
     <row r="273" spans="1:10" ht="18" customHeight="1">
       <c r="A273" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B273" s="15" t="s">
         <v>58</v>
@@ -10035,8 +10038,8 @@
       <c r="C273" s="15">
         <v>1035</v>
       </c>
-      <c r="D273" s="19" t="s">
-        <v>475</v>
+      <c r="D273" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="E273" s="16" t="s">
         <v>341</v>
@@ -10044,8 +10047,8 @@
       <c r="F273" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G273" s="16" t="s">
-        <v>20</v>
+      <c r="G273" s="19" t="s">
+        <v>476</v>
       </c>
       <c r="H273" s="16" t="s">
         <v>32</v>
@@ -10059,18 +10062,18 @@
     </row>
     <row r="274" spans="1:10" ht="18" customHeight="1">
       <c r="A274" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B274" s="15" t="s">
         <v>218</v>
       </c>
       <c r="C274" s="15">
-        <v>335</v>
-      </c>
-      <c r="D274" s="19"/>
+        <v>275</v>
+      </c>
+      <c r="D274" s="16"/>
       <c r="E274" s="16"/>
       <c r="F274" s="16"/>
-      <c r="G274" s="16"/>
+      <c r="G274" s="19"/>
       <c r="H274" s="16"/>
       <c r="I274" s="16"/>
       <c r="J274" s="16"/>
@@ -10109,7 +10112,7 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" s="14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B276" s="15" t="s">
         <v>20</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="277" spans="1:10" ht="18" customHeight="1">
       <c r="A277" s="14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B277" s="15" t="s">
         <v>64</v>
@@ -10173,13 +10176,13 @@
     </row>
     <row r="278" spans="1:10" ht="18" customHeight="1">
       <c r="A278" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B278" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C278" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D278" s="16"/>
       <c r="E278" s="16"/>
@@ -10209,13 +10212,13 @@
         <v>20</v>
       </c>
       <c r="G279" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H279" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I279" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J279" s="18" t="s">
         <v>351</v>
@@ -10223,7 +10226,7 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" s="14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B280" s="15" t="s">
         <v>20</v>
@@ -10250,12 +10253,12 @@
         <v>30</v>
       </c>
       <c r="J280" s="15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="18" customHeight="1">
       <c r="A281" s="14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B281" s="15" t="s">
         <v>79</v>
@@ -10269,14 +10272,14 @@
       <c r="E281" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="F281" s="16" t="s">
-        <v>20</v>
+      <c r="F281" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="G281" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H281" s="21" t="s">
-        <v>88</v>
+      <c r="H281" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="I281" s="16" t="s">
         <v>379</v>
@@ -10287,7 +10290,7 @@
     </row>
     <row r="282" spans="1:10" ht="18" customHeight="1">
       <c r="A282" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B282" s="15" t="s">
         <v>8</v>
@@ -10297,9 +10300,9 @@
       </c>
       <c r="D282" s="16"/>
       <c r="E282" s="16"/>
-      <c r="F282" s="16"/>
+      <c r="F282" s="21"/>
       <c r="G282" s="16"/>
-      <c r="H282" s="21"/>
+      <c r="H282" s="16"/>
       <c r="I282" s="16"/>
       <c r="J282" s="16"/>
     </row>
@@ -10337,7 +10340,7 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B284" s="15" t="s">
         <v>20</v>
@@ -10369,7 +10372,7 @@
     </row>
     <row r="285" spans="1:10" ht="18" customHeight="1">
       <c r="A285" s="14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B285" s="15" t="s">
         <v>30</v>
@@ -10378,7 +10381,7 @@
         <v>1260</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E285" s="16" t="s">
         <v>20</v>
@@ -10390,7 +10393,7 @@
         <v>51</v>
       </c>
       <c r="H285" s="16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I285" s="16" t="s">
         <v>140</v>
@@ -10401,13 +10404,13 @@
     </row>
     <row r="286" spans="1:10" ht="18" customHeight="1">
       <c r="A286" s="14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B286" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C286" s="15">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D286" s="16"/>
       <c r="E286" s="16"/>
@@ -10483,7 +10486,7 @@
     </row>
     <row r="289" spans="1:10" ht="18" customHeight="1">
       <c r="A289" s="14" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B289" s="15" t="s">
         <v>79</v>
@@ -10492,7 +10495,7 @@
         <v>1260</v>
       </c>
       <c r="D289" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E289" s="16" t="s">
         <v>240</v>
@@ -10515,7 +10518,7 @@
     </row>
     <row r="290" spans="1:10" ht="18" customHeight="1">
       <c r="A290" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B290" s="15" t="s">
         <v>8</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B292" s="15" t="s">
         <v>20</v>
@@ -10597,7 +10600,7 @@
     </row>
     <row r="293" spans="1:10" ht="18" customHeight="1">
       <c r="A293" s="14" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B293" s="15" t="s">
         <v>79</v>
@@ -10629,7 +10632,7 @@
     </row>
     <row r="294" spans="1:10" ht="18" customHeight="1">
       <c r="A294" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B294" s="15" t="s">
         <v>8</v>
@@ -10679,7 +10682,7 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" s="14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B296" s="15" t="s">
         <v>20</v>
@@ -10711,7 +10714,7 @@
     </row>
     <row r="297" spans="1:10" ht="18" customHeight="1">
       <c r="A297" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B297" s="15" t="s">
         <v>109</v>
@@ -10732,7 +10735,7 @@
         <v>32</v>
       </c>
       <c r="H297" s="21" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I297" s="16" t="s">
         <v>32</v>
@@ -10743,13 +10746,13 @@
     </row>
     <row r="298" spans="1:10" ht="18" customHeight="1">
       <c r="A298" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B298" s="15" t="s">
         <v>351</v>
       </c>
       <c r="C298" s="15">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D298" s="16"/>
       <c r="E298" s="16"/>
@@ -10793,7 +10796,7 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" s="14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B300" s="15" t="s">
         <v>20</v>
@@ -10852,18 +10855,18 @@
         <v>20</v>
       </c>
       <c r="J301" s="16" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="18" customHeight="1">
       <c r="A302" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C302" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D302" s="16"/>
       <c r="E302" s="16"/>
@@ -10884,30 +10887,30 @@
         <v>20</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E303" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F303" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G303" s="18" t="s">
         <v>20</v>
       </c>
       <c r="H303" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I303" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J303" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="304" spans="1:10">
       <c r="A304" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B304" s="15" t="s">
         <v>20</v>
@@ -10925,7 +10928,7 @@
         <v>331</v>
       </c>
       <c r="G304" s="15" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H304" s="15" t="s">
         <v>294</v>
@@ -10939,7 +10942,7 @@
     </row>
     <row r="305" spans="1:10" ht="18" customHeight="1">
       <c r="A305" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B305" s="15" t="s">
         <v>79</v>
@@ -10971,7 +10974,7 @@
     </row>
     <row r="306" spans="1:10" ht="18" customHeight="1">
       <c r="A306" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B306" s="15" t="s">
         <v>8</v>
@@ -11021,7 +11024,7 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" s="14" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B308" s="15" t="s">
         <v>20</v>
@@ -11053,7 +11056,7 @@
     </row>
     <row r="309" spans="1:10" ht="18" customHeight="1">
       <c r="A309" s="14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B309" s="15" t="s">
         <v>79</v>
@@ -11085,7 +11088,7 @@
     </row>
     <row r="310" spans="1:10" ht="18" customHeight="1">
       <c r="A310" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B310" s="15" t="s">
         <v>8</v>
@@ -11135,7 +11138,7 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B312" s="15" t="s">
         <v>20</v>
@@ -11167,7 +11170,7 @@
     </row>
     <row r="313" spans="1:10" ht="18" customHeight="1">
       <c r="A313" s="14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B313" s="15" t="s">
         <v>79</v>
@@ -11199,7 +11202,7 @@
     </row>
     <row r="314" spans="1:10" ht="18" customHeight="1">
       <c r="A314" s="14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B314" s="15" t="s">
         <v>8</v>
@@ -11249,7 +11252,7 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B316" s="15" t="s">
         <v>20</v>
@@ -11281,7 +11284,7 @@
     </row>
     <row r="317" spans="1:10" ht="18" customHeight="1">
       <c r="A317" s="14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B317" s="15" t="s">
         <v>79</v>
@@ -11299,10 +11302,10 @@
         <v>101</v>
       </c>
       <c r="G317" s="16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H317" s="16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I317" s="16" t="s">
         <v>20</v>
@@ -11313,7 +11316,7 @@
     </row>
     <row r="318" spans="1:10" ht="18" customHeight="1">
       <c r="A318" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B318" s="15" t="s">
         <v>8</v>
@@ -11395,7 +11398,7 @@
     </row>
     <row r="321" spans="1:10" ht="18" customHeight="1">
       <c r="A321" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B321" s="15" t="s">
         <v>162</v>
@@ -11407,7 +11410,7 @@
         <v>433</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F321" s="16" t="s">
         <v>20</v>
@@ -11427,13 +11430,13 @@
     </row>
     <row r="322" spans="1:10" ht="18" customHeight="1">
       <c r="A322" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C322" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D322" s="16"/>
       <c r="E322" s="16"/>
@@ -11454,30 +11457,30 @@
         <v>20</v>
       </c>
       <c r="D323" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E323" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F323" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G323" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H323" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I323" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J323" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="324" spans="1:10">
       <c r="A324" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B324" s="15" t="s">
         <v>20</v>
@@ -11509,7 +11512,7 @@
     </row>
     <row r="325" spans="1:10" ht="18" customHeight="1">
       <c r="A325" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B325" s="15" t="s">
         <v>109</v>
@@ -11518,36 +11521,36 @@
         <v>1035</v>
       </c>
       <c r="D325" s="16" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E325" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="F325" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G325" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H325" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I325" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J325" s="16" t="s">
         <v>523</v>
-      </c>
-      <c r="F325" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G325" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H325" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I325" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J325" s="16" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="18" customHeight="1">
       <c r="A326" s="14" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B326" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C326" s="15">
-        <v>545</v>
+        <v>485</v>
       </c>
       <c r="D326" s="16"/>
       <c r="E326" s="19"/>
@@ -11591,7 +11594,7 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" s="14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B328" s="15" t="s">
         <v>20</v>
@@ -11623,7 +11626,7 @@
     </row>
     <row r="329" spans="1:10" ht="18" customHeight="1">
       <c r="A329" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B329" s="15" t="s">
         <v>79</v>
@@ -11635,7 +11638,7 @@
         <v>32</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F329" s="16" t="s">
         <v>20</v>
@@ -11644,18 +11647,18 @@
         <v>20</v>
       </c>
       <c r="H329" s="16" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I329" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J329" s="16" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="330" spans="1:10" ht="18" customHeight="1">
       <c r="A330" s="14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B330" s="15" t="s">
         <v>8</v>
@@ -11705,7 +11708,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B332" s="15" t="s">
         <v>20</v>
@@ -11737,7 +11740,7 @@
     </row>
     <row r="333" spans="1:10" ht="18" customHeight="1">
       <c r="A333" s="14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B333" s="15" t="s">
         <v>79</v>
@@ -11746,7 +11749,7 @@
         <v>756</v>
       </c>
       <c r="D333" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E333" s="16" t="s">
         <v>118</v>
@@ -11769,7 +11772,7 @@
     </row>
     <row r="334" spans="1:10" ht="18" customHeight="1">
       <c r="A334" s="14" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B334" s="15" t="s">
         <v>8</v>
@@ -11819,7 +11822,7 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B336" s="15" t="s">
         <v>20</v>
@@ -11851,10 +11854,10 @@
     </row>
     <row r="337" spans="1:10" ht="18" customHeight="1">
       <c r="A337" s="14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C337" s="15">
         <v>1260</v>
@@ -11872,24 +11875,24 @@
         <v>20</v>
       </c>
       <c r="H337" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I337" s="20" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J337" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="18" customHeight="1">
       <c r="A338" s="14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C338" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D338" s="16"/>
       <c r="E338" s="16"/>
@@ -11933,7 +11936,7 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" s="14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B340" s="15" t="s">
         <v>20</v>
@@ -11965,7 +11968,7 @@
     </row>
     <row r="341" spans="1:10" ht="18" customHeight="1">
       <c r="A341" s="14" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B341" s="15" t="s">
         <v>79</v>
@@ -11974,16 +11977,16 @@
         <v>1035</v>
       </c>
       <c r="D341" s="16" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F341" s="16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G341" s="16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H341" s="16" t="s">
         <v>204</v>
@@ -11997,7 +12000,7 @@
     </row>
     <row r="342" spans="1:10" ht="18" customHeight="1">
       <c r="A342" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B342" s="15" t="s">
         <v>8</v>
@@ -12068,7 +12071,7 @@
         <v>20</v>
       </c>
       <c r="H344" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I344" s="15" t="s">
         <v>64</v>
@@ -12079,7 +12082,7 @@
     </row>
     <row r="345" spans="1:10" ht="18" customHeight="1">
       <c r="A345" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B345" s="15" t="s">
         <v>64</v>
@@ -12094,10 +12097,10 @@
         <v>101</v>
       </c>
       <c r="F345" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="G345" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
+      </c>
+      <c r="G345" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="H345" s="16" t="s">
         <v>101</v>
@@ -12105,27 +12108,27 @@
       <c r="I345" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="J345" s="16" t="s">
-        <v>20</v>
+      <c r="J345" s="19" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="346" spans="1:10" ht="18" customHeight="1">
       <c r="A346" s="14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B346" s="15" t="s">
         <v>185</v>
       </c>
       <c r="C346" s="15">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D346" s="16"/>
       <c r="E346" s="16"/>
       <c r="F346" s="16"/>
-      <c r="G346" s="19"/>
+      <c r="G346" s="16"/>
       <c r="H346" s="16"/>
       <c r="I346" s="16"/>
-      <c r="J346" s="16"/>
+      <c r="J346" s="19"/>
     </row>
     <row r="347" spans="1:10">
       <c r="A347" s="17" t="s">
@@ -12233,10 +12236,10 @@
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
-    <mergeCell ref="J41:J42"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="H45:H46"/>
     <mergeCell ref="I45:I46"/>
@@ -12274,10 +12277,10 @@
     <mergeCell ref="H61:H62"/>
     <mergeCell ref="I65:I66"/>
     <mergeCell ref="J65:J66"/>
+    <mergeCell ref="G65:G66"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="E65:E66"/>
     <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="D69:D70"/>
     <mergeCell ref="E69:E70"/>
@@ -12309,11 +12312,11 @@
     <mergeCell ref="E81:E82"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="E85:E86"/>
     <mergeCell ref="F85:F86"/>
-    <mergeCell ref="E85:E86"/>
     <mergeCell ref="G85:G86"/>
     <mergeCell ref="H85:H86"/>
-    <mergeCell ref="J85:J86"/>
     <mergeCell ref="G89:G90"/>
     <mergeCell ref="I89:I90"/>
     <mergeCell ref="F89:F90"/>
@@ -12324,9 +12327,9 @@
     <mergeCell ref="G93:G94"/>
     <mergeCell ref="H93:H94"/>
     <mergeCell ref="I93:I94"/>
-    <mergeCell ref="F93:F94"/>
     <mergeCell ref="D93:D94"/>
     <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
     <mergeCell ref="J93:J94"/>
     <mergeCell ref="D97:D98"/>
     <mergeCell ref="E97:E98"/>
@@ -12456,11 +12459,11 @@
     <mergeCell ref="J165:J166"/>
     <mergeCell ref="F169:F170"/>
     <mergeCell ref="J169:J170"/>
-    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="E169:E170"/>
     <mergeCell ref="D169:D170"/>
-    <mergeCell ref="E169:E170"/>
     <mergeCell ref="G169:G170"/>
     <mergeCell ref="H169:H170"/>
+    <mergeCell ref="I169:I170"/>
     <mergeCell ref="D173:D174"/>
     <mergeCell ref="E173:E174"/>
     <mergeCell ref="F173:F174"/>
@@ -12473,14 +12476,14 @@
     <mergeCell ref="F177:F178"/>
     <mergeCell ref="G177:G178"/>
     <mergeCell ref="J177:J178"/>
+    <mergeCell ref="I177:I178"/>
     <mergeCell ref="H177:H178"/>
-    <mergeCell ref="I177:I178"/>
     <mergeCell ref="I181:I182"/>
     <mergeCell ref="J181:J182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="F181:F182"/>
     <mergeCell ref="G181:G182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
     <mergeCell ref="H181:H182"/>
     <mergeCell ref="D185:D186"/>
     <mergeCell ref="E185:E186"/>
@@ -12534,30 +12537,30 @@
     <mergeCell ref="E213:E214"/>
     <mergeCell ref="F213:F214"/>
     <mergeCell ref="G213:G214"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="D213:D214"/>
     <mergeCell ref="H213:H214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="I213:I214"/>
     <mergeCell ref="J213:J214"/>
     <mergeCell ref="D217:D218"/>
     <mergeCell ref="E217:E218"/>
     <mergeCell ref="F217:F218"/>
     <mergeCell ref="G217:G218"/>
     <mergeCell ref="H217:H218"/>
+    <mergeCell ref="J217:J218"/>
     <mergeCell ref="I217:I218"/>
-    <mergeCell ref="J217:J218"/>
     <mergeCell ref="E221:E222"/>
-    <mergeCell ref="I221:I222"/>
+    <mergeCell ref="G221:G222"/>
     <mergeCell ref="D221:D222"/>
     <mergeCell ref="F221:F222"/>
-    <mergeCell ref="G221:G222"/>
     <mergeCell ref="H221:H222"/>
+    <mergeCell ref="I221:I222"/>
     <mergeCell ref="J221:J222"/>
     <mergeCell ref="F225:F226"/>
-    <mergeCell ref="I225:I226"/>
+    <mergeCell ref="G225:G226"/>
     <mergeCell ref="D225:D226"/>
     <mergeCell ref="E225:E226"/>
-    <mergeCell ref="G225:G226"/>
     <mergeCell ref="H225:H226"/>
+    <mergeCell ref="I225:I226"/>
     <mergeCell ref="J225:J226"/>
     <mergeCell ref="D229:D230"/>
     <mergeCell ref="F229:F230"/>
@@ -12583,9 +12586,9 @@
     <mergeCell ref="F241:F242"/>
     <mergeCell ref="G241:G242"/>
     <mergeCell ref="H241:H242"/>
-    <mergeCell ref="I241:I242"/>
     <mergeCell ref="D241:D242"/>
     <mergeCell ref="E241:E242"/>
+    <mergeCell ref="I241:I242"/>
     <mergeCell ref="J241:J242"/>
     <mergeCell ref="D245:D246"/>
     <mergeCell ref="F245:F246"/>
@@ -12604,10 +12607,10 @@
     <mergeCell ref="G253:G254"/>
     <mergeCell ref="H253:H254"/>
     <mergeCell ref="J253:J254"/>
+    <mergeCell ref="I253:I254"/>
     <mergeCell ref="D253:D254"/>
     <mergeCell ref="E253:E254"/>
     <mergeCell ref="F253:F254"/>
-    <mergeCell ref="I253:I254"/>
     <mergeCell ref="F257:F258"/>
     <mergeCell ref="G257:G258"/>
     <mergeCell ref="H257:H258"/>
@@ -12623,12 +12626,12 @@
     <mergeCell ref="I261:I262"/>
     <mergeCell ref="J261:J262"/>
     <mergeCell ref="J265:J266"/>
-    <mergeCell ref="I265:I266"/>
+    <mergeCell ref="E265:E266"/>
     <mergeCell ref="D265:D266"/>
-    <mergeCell ref="E265:E266"/>
     <mergeCell ref="F265:F266"/>
     <mergeCell ref="G265:G266"/>
     <mergeCell ref="H265:H266"/>
+    <mergeCell ref="I265:I266"/>
     <mergeCell ref="H269:H270"/>
     <mergeCell ref="D269:D270"/>
     <mergeCell ref="E269:E270"/>
@@ -12639,9 +12642,9 @@
     <mergeCell ref="E273:E274"/>
     <mergeCell ref="H273:H274"/>
     <mergeCell ref="I273:I274"/>
+    <mergeCell ref="G273:G274"/>
     <mergeCell ref="D273:D274"/>
     <mergeCell ref="F273:F274"/>
-    <mergeCell ref="G273:G274"/>
     <mergeCell ref="J273:J274"/>
     <mergeCell ref="D277:D278"/>
     <mergeCell ref="E277:E278"/>
@@ -12655,8 +12658,8 @@
     <mergeCell ref="G281:G282"/>
     <mergeCell ref="I281:I282"/>
     <mergeCell ref="J281:J282"/>
+    <mergeCell ref="F281:F282"/>
     <mergeCell ref="H281:H282"/>
-    <mergeCell ref="F281:F282"/>
     <mergeCell ref="D285:D286"/>
     <mergeCell ref="G285:G286"/>
     <mergeCell ref="H285:H286"/>
@@ -12766,9 +12769,9 @@
     <mergeCell ref="F345:F346"/>
     <mergeCell ref="H345:H346"/>
     <mergeCell ref="I345:I346"/>
+    <mergeCell ref="J345:J346"/>
+    <mergeCell ref="D345:D346"/>
     <mergeCell ref="G345:G346"/>
-    <mergeCell ref="D345:D346"/>
-    <mergeCell ref="J345:J346"/>
   </mergeCells>
   <pageMargins left="0.04" right="0.04" top="0.15" bottom="0.15" header="0.3" footer="0.3"/>
   <rowBreaks count="8" manualBreakCount="8">
@@ -12813,7 +12816,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -12942,7 +12945,7 @@
         <v>117</v>
       </c>
       <c r="C6" s="15">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="16"/>
@@ -12986,7 +12989,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>20</v>
@@ -13018,7 +13021,7 @@
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>79</v>
@@ -13027,7 +13030,7 @@
         <v>756</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>118</v>
@@ -13050,7 +13053,7 @@
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>8</v>
@@ -13157,7 +13160,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -13286,7 +13289,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="15">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -13479,13 +13482,13 @@
         <v>152</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C13" s="15">
         <v>1260</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>70</v>
@@ -13511,7 +13514,7 @@
         <v>153</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="C14" s="15">
         <v>0</v>
@@ -13535,25 +13538,25 @@
         <v>20</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13628,7 +13631,7 @@
         <v>293</v>
       </c>
       <c r="C18" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -13696,7 +13699,7 @@
         <v>331</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>184</v>
@@ -14084,7 +14087,7 @@
         <v>288</v>
       </c>
       <c r="C34" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -14180,14 +14183,14 @@
       <c r="G37" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="22" t="s">
         <v>401</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1">
@@ -14204,9 +14207,9 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="24"/>
-      <c r="H38" s="22"/>
+      <c r="H38" s="16"/>
       <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="17" t="s">
@@ -14291,8 +14294,8 @@
       <c r="F41" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="G41" s="16" t="s">
-        <v>20</v>
+      <c r="G41" s="25" t="s">
+        <v>421</v>
       </c>
       <c r="H41" s="16" t="s">
         <v>20</v>
@@ -14300,8 +14303,8 @@
       <c r="I41" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="25" t="s">
-        <v>421</v>
+      <c r="J41" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1">
@@ -14312,15 +14315,15 @@
         <v>357</v>
       </c>
       <c r="C42" s="15">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="G42" s="25"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
-      <c r="J42" s="25"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="17" t="s">
@@ -14516,14 +14519,14 @@
       <c r="E49" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="22" t="s">
         <v>469</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>20</v>
@@ -14540,13 +14543,13 @@
         <v>241</v>
       </c>
       <c r="C50" s="15">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
-      <c r="F50" s="22"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
+      <c r="H50" s="22"/>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
     </row>
@@ -14584,7 +14587,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>20</v>
@@ -14616,7 +14619,7 @@
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>64</v>
@@ -14648,13 +14651,13 @@
     </row>
     <row r="54" spans="1:10" ht="18" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C54" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -14684,13 +14687,13 @@
         <v>20</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H55" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J55" s="18" t="s">
         <v>351</v>
@@ -14698,7 +14701,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>20</v>
@@ -14757,18 +14760,18 @@
         <v>20</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="18" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C58" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
@@ -14789,30 +14792,30 @@
         <v>20</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>20</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I59" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>20</v>
@@ -14844,7 +14847,7 @@
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>79</v>
@@ -14876,7 +14879,7 @@
     </row>
     <row r="62" spans="1:10" ht="18" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>8</v>
@@ -14926,7 +14929,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>20</v>
@@ -14958,10 +14961,10 @@
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C65" s="15">
         <v>1260</v>
@@ -14979,24 +14982,24 @@
         <v>20</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="18" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C66" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
@@ -15105,17 +15108,17 @@
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="G37:G38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="H37:H38"/>
-    <mergeCell ref="D37:D38"/>
     <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
     <mergeCell ref="F41:F42"/>
-    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="G41:G42"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G41:G42"/>
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="H45:H46"/>
     <mergeCell ref="I45:I46"/>
@@ -15124,11 +15127,11 @@
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="J49:J50"/>
-    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
     <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
     <mergeCell ref="I49:I50"/>
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="E53:E54"/>
@@ -15196,7 +15199,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -15325,7 +15328,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -15553,7 +15556,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -15667,7 +15670,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -15846,7 +15849,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>64</v>
@@ -15857,7 +15860,7 @@
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>64</v>
@@ -15866,13 +15869,13 @@
         <v>1035</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>101</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>20</v>
@@ -15889,13 +15892,13 @@
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>185</v>
       </c>
       <c r="C26" s="15">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="16"/>
@@ -16024,7 +16027,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -16232,13 +16235,13 @@
         <v>152</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C9" s="15">
         <v>1260</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>70</v>
@@ -16264,7 +16267,7 @@
         <v>153</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="C10" s="15">
         <v>0</v>
@@ -16288,25 +16291,25 @@
         <v>20</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -16326,7 +16329,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>132</v>
@@ -16346,19 +16349,19 @@
         <v>191</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C13" s="15">
         <v>1035</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>199</v>
       </c>
+      <c r="E13" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="F13" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>47</v>
@@ -16378,13 +16381,13 @@
         <v>192</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="C14" s="15">
-        <v>95</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -16408,7 +16411,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>31</v>
@@ -16468,11 +16471,11 @@
       <c r="D17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="19" t="s">
         <v>221</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>32</v>
@@ -16495,11 +16498,11 @@
         <v>216</v>
       </c>
       <c r="C18" s="15">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -16609,7 +16612,7 @@
         <v>293</v>
       </c>
       <c r="C22" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -16677,7 +16680,7 @@
         <v>331</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>184</v>
@@ -16951,7 +16954,7 @@
         <v>288</v>
       </c>
       <c r="C34" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -17293,7 +17296,7 @@
         <v>442</v>
       </c>
       <c r="C46" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -17337,7 +17340,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>20</v>
@@ -17369,7 +17372,7 @@
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>79</v>
@@ -17401,7 +17404,7 @@
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>8</v>
@@ -17451,7 +17454,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>20</v>
@@ -17469,7 +17472,7 @@
         <v>331</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>294</v>
@@ -17483,7 +17486,7 @@
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>79</v>
@@ -17515,7 +17518,7 @@
     </row>
     <row r="54" spans="1:10" ht="18" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>8</v>
@@ -17565,7 +17568,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>20</v>
@@ -17597,10 +17600,10 @@
     </row>
     <row r="57" spans="1:10" ht="18" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C57" s="15">
         <v>1260</v>
@@ -17618,24 +17621,24 @@
         <v>20</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="18" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C58" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
@@ -17704,14 +17707,14 @@
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
@@ -17821,7 +17824,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -17950,7 +17953,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -18064,7 +18067,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="15">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="16"/>
@@ -18292,7 +18295,7 @@
         <v>138</v>
       </c>
       <c r="C18" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="20"/>
@@ -18520,7 +18523,7 @@
         <v>149</v>
       </c>
       <c r="C26" s="15">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -18604,8 +18607,8 @@
       <c r="C29" s="15">
         <v>1035</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>212</v>
+      <c r="D29" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>20</v>
@@ -18622,8 +18625,8 @@
       <c r="I29" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="J29" s="16" t="s">
-        <v>20</v>
+      <c r="J29" s="22" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1">
@@ -18634,15 +18637,15 @@
         <v>148</v>
       </c>
       <c r="C30" s="15">
-        <v>505</v>
-      </c>
-      <c r="D30" s="22"/>
+        <v>445</v>
+      </c>
+      <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="17" t="s">
@@ -19090,7 +19093,7 @@
         <v>85</v>
       </c>
       <c r="C46" s="15">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="20"/>
@@ -19204,7 +19207,7 @@
         <v>414</v>
       </c>
       <c r="C50" s="15">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -19318,7 +19321,7 @@
         <v>150</v>
       </c>
       <c r="C54" s="15">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -19476,7 +19479,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>20</v>
@@ -19508,7 +19511,7 @@
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>30</v>
@@ -19517,7 +19520,7 @@
         <v>1260</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>20</v>
@@ -19529,7 +19532,7 @@
         <v>51</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>140</v>
@@ -19540,13 +19543,13 @@
     </row>
     <row r="62" spans="1:10" ht="18" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C62" s="15">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
@@ -19622,7 +19625,7 @@
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>162</v>
@@ -19634,7 +19637,7 @@
         <v>433</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F65" s="16" t="s">
         <v>20</v>
@@ -19654,13 +19657,13 @@
     </row>
     <row r="66" spans="1:10" ht="18" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C66" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
@@ -19681,25 +19684,25 @@
         <v>20</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F67" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I67" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -19754,11 +19757,11 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="J29:J30"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="G33:G34"/>
@@ -19860,7 +19863,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -19989,7 +19992,7 @@
         <v>106</v>
       </c>
       <c r="C6" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -20079,8 +20082,8 @@
       <c r="E9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>20</v>
+      <c r="F9" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>175</v>
@@ -20091,8 +20094,8 @@
       <c r="I9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>179</v>
+      <c r="J9" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
@@ -20107,11 +20110,11 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="17" t="s">
@@ -20193,11 +20196,11 @@
       <c r="E13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>20</v>
@@ -20217,12 +20220,12 @@
         <v>203</v>
       </c>
       <c r="C14" s="15">
-        <v>545</v>
+        <v>485</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
@@ -20304,11 +20307,11 @@
       <c r="D17" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="23" t="s">
         <v>258</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>254</v>
@@ -20331,11 +20334,11 @@
         <v>252</v>
       </c>
       <c r="C18" s="15">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -20603,7 +20606,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>20</v>
@@ -20635,7 +20638,7 @@
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>79</v>
@@ -20647,7 +20650,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>20</v>
@@ -20656,18 +20659,18 @@
         <v>20</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>8</v>
@@ -20717,7 +20720,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>20</v>
@@ -20749,7 +20752,7 @@
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>79</v>
@@ -20758,30 +20761,30 @@
         <v>1035</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>8</v>
@@ -20794,8 +20797,8 @@
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="17" t="s">
@@ -20846,16 +20849,16 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="I13:I14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="D17:D18"/>
@@ -20863,8 +20866,8 @@
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E17:E18"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
@@ -20891,8 +20894,8 @@
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:H34"/>
+    <mergeCell ref="J33:J34"/>
     <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
   </mergeCells>
   <pageMargins left="0.04" right="0.04" top="0.15" bottom="0.15" header="0.3" footer="0.3"/>
   <rowBreaks count="1" manualBreakCount="1">
@@ -20930,7 +20933,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -21032,8 +21035,8 @@
       <c r="D5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>20</v>
+      <c r="E5" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>280</v>
@@ -21047,8 +21050,8 @@
       <c r="I5" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>282</v>
+      <c r="J5" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
@@ -21059,15 +21062,15 @@
         <v>187</v>
       </c>
       <c r="C6" s="15">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="19"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
@@ -21112,10 +21115,10 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <pageMargins left="0.04" right="0.04" top="0.15" bottom="0.15" header="0.3" footer="0.3"/>
   <rowBreaks count="1" manualBreakCount="1">
@@ -21153,7 +21156,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -21282,7 +21285,7 @@
         <v>106</v>
       </c>
       <c r="C6" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -21396,7 +21399,7 @@
         <v>262</v>
       </c>
       <c r="C10" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -21510,7 +21513,7 @@
         <v>113</v>
       </c>
       <c r="C14" s="15">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -21624,7 +21627,7 @@
         <v>61</v>
       </c>
       <c r="C18" s="15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -21692,7 +21695,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>20</v>
@@ -21738,7 +21741,7 @@
         <v>314</v>
       </c>
       <c r="C22" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -21946,10 +21949,10 @@
         <v>407</v>
       </c>
       <c r="G29" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="H29" s="16" t="s">
         <v>409</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>273</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>410</v>
@@ -22080,7 +22083,7 @@
         <v>124</v>
       </c>
       <c r="C34" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -22177,7 +22180,7 @@
         <v>20</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>273</v>
+        <v>473</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>20</v>
@@ -22344,7 +22347,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -22473,7 +22476,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -22587,7 +22590,7 @@
         <v>106</v>
       </c>
       <c r="C10" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -22701,7 +22704,7 @@
         <v>252</v>
       </c>
       <c r="C14" s="15">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -22809,7 +22812,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -22938,7 +22941,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="15">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -23250,11 +23253,11 @@
       <c r="C17" s="15">
         <v>1008</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>20</v>
@@ -23280,10 +23283,10 @@
         <v>82</v>
       </c>
       <c r="C18" s="15">
-        <v>98</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -23508,7 +23511,7 @@
         <v>169</v>
       </c>
       <c r="C26" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -23736,7 +23739,7 @@
         <v>98</v>
       </c>
       <c r="C34" s="15">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -23850,7 +23853,7 @@
         <v>61</v>
       </c>
       <c r="C38" s="15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -24192,7 +24195,7 @@
         <v>124</v>
       </c>
       <c r="C50" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -24282,8 +24285,8 @@
       <c r="E53" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="19" t="s">
-        <v>455</v>
+      <c r="F53" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>452</v>
@@ -24291,8 +24294,8 @@
       <c r="H53" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="I53" s="16" t="s">
-        <v>20</v>
+      <c r="I53" s="19" t="s">
+        <v>455</v>
       </c>
       <c r="J53" s="16" t="s">
         <v>51</v>
@@ -24310,10 +24313,10 @@
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="19"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="24"/>
       <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
+      <c r="I54" s="19"/>
       <c r="J54" s="16"/>
     </row>
     <row r="55" spans="1:10">
@@ -24350,7 +24353,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>20</v>
@@ -24377,12 +24380,12 @@
         <v>30</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="18" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>79</v>
@@ -24414,7 +24417,7 @@
     </row>
     <row r="58" spans="1:10" ht="18" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>8</v>
@@ -24464,7 +24467,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="14" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>20</v>
@@ -24496,7 +24499,7 @@
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>79</v>
@@ -24528,7 +24531,7 @@
     </row>
     <row r="62" spans="1:10" ht="18" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>8</v>
@@ -24578,7 +24581,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>20</v>
@@ -24610,7 +24613,7 @@
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>79</v>
@@ -24628,10 +24631,10 @@
         <v>101</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I65" s="16" t="s">
         <v>20</v>
@@ -24642,7 +24645,7 @@
     </row>
     <row r="66" spans="1:10" ht="18" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>8</v>
@@ -24723,8 +24726,8 @@
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
@@ -24785,10 +24788,10 @@
     <mergeCell ref="G53:G54"/>
     <mergeCell ref="H53:H54"/>
     <mergeCell ref="J53:J54"/>
-    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="I53:I54"/>
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="E53:E54"/>
-    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="F53:F54"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="G57:G58"/>
@@ -24848,7 +24851,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -24977,7 +24980,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -25061,8 +25064,8 @@
       <c r="C9" s="15">
         <v>756</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>20</v>
+      <c r="D9" s="19" t="s">
+        <v>438</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>20</v>
@@ -25079,8 +25082,8 @@
       <c r="I9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>438</v>
+      <c r="J9" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
@@ -25093,13 +25096,13 @@
       <c r="C10" s="15">
         <v>126</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="17" t="s">
@@ -25281,7 +25284,7 @@
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>79</v>
@@ -25290,7 +25293,7 @@
         <v>1260</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>240</v>
@@ -25313,7 +25316,7 @@
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>8</v>
@@ -25379,10 +25382,10 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="J9:J10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -25434,7 +25437,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -25563,7 +25566,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -25647,8 +25650,8 @@
       <c r="C9" s="15">
         <v>1135</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>20</v>
+      <c r="D9" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>101</v>
@@ -25665,8 +25668,8 @@
       <c r="I9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>88</v>
+      <c r="J9" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
@@ -25679,13 +25682,13 @@
       <c r="C10" s="15">
         <v>175</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="21"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="17" t="s">
@@ -25791,7 +25794,7 @@
         <v>149</v>
       </c>
       <c r="C14" s="15">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -25905,7 +25908,7 @@
         <v>183</v>
       </c>
       <c r="C18" s="15">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -25989,14 +25992,14 @@
       <c r="C21" s="15">
         <v>1035</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>32</v>
@@ -26019,11 +26022,11 @@
         <v>216</v>
       </c>
       <c r="C22" s="15">
-        <v>335</v>
-      </c>
-      <c r="D22" s="19"/>
+        <v>275</v>
+      </c>
+      <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -26106,8 +26109,8 @@
       <c r="D25" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>20</v>
+      <c r="E25" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>280</v>
@@ -26115,8 +26118,8 @@
       <c r="G25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>282</v>
+      <c r="H25" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>281</v>
@@ -26133,13 +26136,13 @@
         <v>187</v>
       </c>
       <c r="C26" s="15">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="19"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
     </row>
@@ -26361,7 +26364,7 @@
         <v>217</v>
       </c>
       <c r="C34" s="15">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -26589,7 +26592,7 @@
         <v>74</v>
       </c>
       <c r="C42" s="15">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="16"/>
@@ -26703,7 +26706,7 @@
         <v>349</v>
       </c>
       <c r="C46" s="15">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -26817,7 +26820,7 @@
         <v>150</v>
       </c>
       <c r="C50" s="15">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -26893,7 +26896,7 @@
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>58</v>
@@ -26901,14 +26904,14 @@
       <c r="C53" s="15">
         <v>1035</v>
       </c>
-      <c r="D53" s="16" t="s">
-        <v>20</v>
+      <c r="D53" s="19" t="s">
+        <v>476</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="F53" s="19" t="s">
-        <v>475</v>
+      <c r="F53" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>20</v>
@@ -26925,17 +26928,17 @@
     </row>
     <row r="54" spans="1:10" ht="18" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>218</v>
       </c>
       <c r="C54" s="15">
-        <v>335</v>
-      </c>
-      <c r="D54" s="16"/>
+        <v>275</v>
+      </c>
+      <c r="D54" s="19"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="19"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
@@ -26975,7 +26978,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>20</v>
@@ -27007,7 +27010,7 @@
     </row>
     <row r="57" spans="1:10" ht="18" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>64</v>
@@ -27039,13 +27042,13 @@
     </row>
     <row r="58" spans="1:10" ht="18" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C58" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
@@ -27075,13 +27078,13 @@
         <v>20</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J59" s="18" t="s">
         <v>351</v>
@@ -27089,7 +27092,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>20</v>
@@ -27121,7 +27124,7 @@
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>109</v>
@@ -27148,18 +27151,18 @@
         <v>32</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="18" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>351</v>
       </c>
       <c r="C62" s="15">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
@@ -27203,7 +27206,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>20</v>
@@ -27262,18 +27265,18 @@
         <v>20</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="18" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C66" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
@@ -27294,30 +27297,30 @@
         <v>20</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G67" s="18" t="s">
         <v>20</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I67" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>20</v>
@@ -27349,7 +27352,7 @@
     </row>
     <row r="69" spans="1:10" ht="18" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>109</v>
@@ -27358,10 +27361,10 @@
         <v>1035</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>20</v>
+        <v>522</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>524</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>20</v>
@@ -27372,29 +27375,29 @@
       <c r="H69" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="19" t="s">
+      <c r="I69" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="16" t="s">
         <v>523</v>
-      </c>
-      <c r="J69" s="16" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="18" customHeight="1">
       <c r="A70" s="14" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C70" s="15">
-        <v>545</v>
+        <v>485</v>
       </c>
       <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
+      <c r="E70" s="19"/>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
-      <c r="I70" s="19"/>
+      <c r="I70" s="16"/>
       <c r="J70" s="16"/>
     </row>
     <row r="71" spans="1:10">
@@ -27431,7 +27434,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>20</v>
@@ -27463,7 +27466,7 @@
     </row>
     <row r="73" spans="1:10" ht="18" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>79</v>
@@ -27475,7 +27478,7 @@
         <v>32</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F73" s="16" t="s">
         <v>20</v>
@@ -27484,18 +27487,18 @@
         <v>20</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I73" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="18" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>8</v>
@@ -27563,8 +27566,8 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D9:D10"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="G13:G14"/>
@@ -27582,16 +27585,16 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
+    <mergeCell ref="F21:F22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H25:H26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
@@ -27638,8 +27641,8 @@
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="H53:H54"/>
     <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
     <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D53:D54"/>
     <mergeCell ref="G53:G54"/>
     <mergeCell ref="J53:J54"/>
     <mergeCell ref="D57:D58"/>
@@ -27665,11 +27668,11 @@
     <mergeCell ref="I65:I66"/>
     <mergeCell ref="D69:D70"/>
     <mergeCell ref="J69:J70"/>
-    <mergeCell ref="I69:I70"/>
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="F69:F70"/>
     <mergeCell ref="G69:G70"/>
     <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="H73:H74"/>
@@ -27715,7 +27718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -27934,8 +27937,8 @@
       <c r="E9" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>189</v>
+      <c r="F9" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>188</v>
@@ -27943,8 +27946,8 @@
       <c r="H9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>20</v>
+      <c r="I9" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>101</v>
@@ -27958,14 +27961,14 @@
         <v>183</v>
       </c>
       <c r="C10" s="15">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="23"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10">
@@ -28072,7 +28075,7 @@
         <v>220</v>
       </c>
       <c r="C14" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -28186,7 +28189,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -28414,7 +28417,7 @@
         <v>39</v>
       </c>
       <c r="C26" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -28528,7 +28531,7 @@
         <v>288</v>
       </c>
       <c r="C30" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -28642,7 +28645,7 @@
         <v>124</v>
       </c>
       <c r="C34" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -28756,7 +28759,7 @@
         <v>100</v>
       </c>
       <c r="C38" s="15">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -28800,7 +28803,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>20</v>
@@ -28818,7 +28821,7 @@
         <v>331</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>294</v>
@@ -28832,7 +28835,7 @@
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>79</v>
@@ -28864,7 +28867,7 @@
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>8</v>
@@ -28914,7 +28917,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>20</v>
@@ -28946,7 +28949,7 @@
     </row>
     <row r="45" spans="1:10" ht="18" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>79</v>
@@ -28964,10 +28967,10 @@
         <v>101</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I45" s="16" t="s">
         <v>20</v>
@@ -28978,7 +28981,7 @@
     </row>
     <row r="46" spans="1:10" ht="18" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>8</v>
@@ -29049,7 +29052,7 @@
         <v>20</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>64</v>
@@ -29060,7 +29063,7 @@
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>64</v>
@@ -29075,10 +29078,10 @@
         <v>101</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>101</v>
@@ -29086,27 +29089,27 @@
       <c r="I49" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="J49" s="16" t="s">
-        <v>20</v>
+      <c r="J49" s="19" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>185</v>
       </c>
       <c r="C50" s="15">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="19"/>
+      <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
+      <c r="J50" s="19"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="17" t="s">
@@ -29159,9 +29162,9 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
@@ -29229,9 +29232,9 @@
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="H49:H50"/>
     <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="D49:D50"/>
     <mergeCell ref="G49:G50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="J49:J50"/>
   </mergeCells>
   <pageMargins left="0.04" right="0.04" top="0.15" bottom="0.15" header="0.3" footer="0.3"/>
   <rowBreaks count="2" manualBreakCount="2">
@@ -29270,7 +29273,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10">
